--- a/biology/Zoologie/Corps_allate_et_cardiaque/Corps_allate_et_cardiaque.xlsx
+++ b/biology/Zoologie/Corps_allate_et_cardiaque/Corps_allate_et_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps allate et le corps cardiaque sont deux glandes endocrines, primitivement paires, que l'on trouve chez les insectes. Elles sont reliées entre elles par des nerfs et ont tendance à se rapprocher au cours de l'évolution, voire à fusionner (parfois même avec la glande de mue) pour ne former qu'un seul organe endocrine complexe. Ce complexe endocrine allato-cardiaque (parfois nommé aussi complexe rétro-cérébral) présente des analogies avec l'hypophyse des vertébrés.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation anatomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps allate est également nommé corpus allatum ou corpora allata au pluriel, pour indiquer que les insectes ont généralement une paire de ces glandes. Ces mots latins sont utilisés tels quels en anglais et dans d'autres langues : allatum signifie "qui est transporté" et vient du fait que ces glandes ont une position variable d'un insecte à l'autre, mais le plus souvent dans la tête, généralement entre le cerveau et l'œsophage.
 Le corps cardiaque (également nommé corpus cardiacum ou corpora cardiaca) tient son nom du fait qu'il est fréquemment situé contre l'aorte contractile qui correspond au cœur des insectes et qui assure la circulation de l'hémolymphe.
@@ -544,7 +558,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps allate est essentiellement une glande endocrine qui assure la biosynthèse de l'hormone juvénile, hormone inhibitrice de la métamorphose chez la larve, mais activatrice de la reproduction chez l'adulte.
 Le corps cardiaque est essentiellement un organe neuro-hémal formé par l'extrémité des fibres nerveuses de cellules neurosécrétrices situées dans le cerveau, essentiellement au niveau de la pars intercerbralis. Chez certains insectes, les cellules neurosécrétrices forment un groupe (pair) médian, majoritaire, et deux groupes latéraux.
@@ -578,7 +594,9 @@
           <t>Principales neurohormones et hormones sécrétées par le complexe allato-cardiaque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hormones peptidiques
 L'hormone prothoracotrope : contrôle la biosynthèse de l'ecdysone
